--- a/Ofertas.xlsx
+++ b/Ofertas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,45 +453,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apple iphone 12 64gb 6.1 azul</t>
+          <t>iphone 12 64gb- branco, , color branco</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3180.99</v>
+        <v>3225</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-iphone-12-64gb-6.1/137821872/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D11865359%26country%3Dbr%26srsltid%3DAfmBOorge7Xh6CZKr8ltqQyiy8O5FpkdjobHpYWrwDFZUrYkbF6bAMjQqbY&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiG5tvljMWFAxUUHbkGHRBgCfsQgOUECPIQ&amp;usg=AOvVaw02U3bf23lNm4YPKxh0ZNav</t>
+          <t>https://www.google.com/url?url=https://www.trackerstore.com.br/MLB-3569775671-iphone-12-64gb-_JM%3Fvariation%3D179700168252%26srsltid%3DAfmBOoqd7p1yil2fw3ZUuUe8SfrOXQmyzuuXGfniuqhCccd3BCl4jyIOpLc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjrnIqAkMWFAxXGqpUCHf7SBeUQgOUECLUM&amp;usg=AOvVaw0gP4WKxmf7_uDCQoaJNlmc</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iphone 12 64gb- branco, , color branco</t>
+          <t>apple iphone 12 64gb 6.1 azul</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3225</v>
+        <v>3180.99</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.trackerstore.com.br/MLB-3569775671-iphone-12-64gb-_JM%3Fvariation%3D179700168252%26srsltid%3DAfmBOoqJTBr9srvETLC6p5GIxTz66KCb6utsWfszi3sOOSOYzPkrEVbJEzQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiG5tvljMWFAxUUHbkGHRBgCfsQgOUECOwS&amp;usg=AOvVaw2S-5vZtWOZEsVnVcF-UwJ2</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-iphone-12-64gb-6.1/137821872/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D11865359%26country%3Dbr%26srsltid%3DAfmBOooFvGu3Dw28vQCEG5wIQtu9JhsF_hsM_H-IPVwamkGbBoWdcZLIKq0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjrnIqAkMWFAxXGqpUCHf7SBeUQgOUECK4N&amp;usg=AOvVaw1d_9eW30fm8tTYfVSWOR-V</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pc gamer completo i7, 16gb ram, rtx 3060, ssd 480gb + monitor 21.5" + kit gamer ...</t>
+          <t>iphone 12 azul 64gb - seminovo</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4188.8</v>
+        <v>3190</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.enifler.com.br/pc-gamer-completo-i7-16gb-ram-rtx-3060-ssd-480gb-monitor-215-kit-gamer-teclado-mouse-e-headset-hayom%3Fvariation%3D13674247&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj0-PDwjMWFAxWhOrkGHa65B54QgOUECMYT&amp;usg=AOvVaw2i3gYWVr4WqfLG0MZLuxxc</t>
+          <t>https://www.google.com/url?url=https://www.cdktech.com.br/iphone1264gbazul%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjrnIqAkMWFAxXGqpUCHf7SBeUQgOUECP0O&amp;usg=AOvVaw2XekExzmX8mDvv-XLdH6tF</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iphone 12 64gb | apple | iphone | usado | tamanho 64 gb</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3115</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/iphone-12-64gb-94974491%3Fg_campaign%3Dgoogle_shopping%26srsltid%3DAfmBOoqMyjfUEbYTGK0o1y-5jBqpPr1536QiazJw-wy7RweyqZZQONWc3yA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjrnIqAkMWFAxXGqpUCHf7SBeUQgOUECNcQ&amp;usg=AOvVaw0DiIyy4PTbNpK15eJ6zuLf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>apple iphone 12 64gb seminovo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3235.29</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://templodophone.com.br/produto/apple-iphone-12-64gb-seminovo-vitrine/%3Fattribute_pa_cor%3Dpreto%26srsltid%3DAfmBOorWdQfCvhWjxLdqstVZlv1jAHcoaW_npUny1UnuxSLcSZEHjqmV3tE&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjrnIqAkMWFAxXGqpUCHf7SBeUQgOUECNMR&amp;usg=AOvVaw0Nm1fQ1gtQ4ot7VRVUtldj</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pc gamer ryzen 5 5500, rtx 3060, 16gb ddr4, ssd 480gb, 600w 80 plus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4311.3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.enifler.com.br/pc-gamer-ryzen-5-5500-rtx-3060-12gb-16gb-ddr4-ssd-480gb-600w-80-plus-1%3Fvariation%3D15509340&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj_u5-JkMWFAxU8pZUCHavRBWAQguUECK8M&amp;usg=AOvVaw26OcrEJu-2p6XLu4XokD3I</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pc gamer w3, ryzen 5 5600g, geforce rtx 3060, 32gb ddr4, 1tb ssd nvme, gabinete ...</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4499.9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.lojanovaera.com/produto/pc-gamer-w3-ryzen-5-5600g-geforce-rtx-3060-32gb-ddr4-1tb-ssd-nvme-gabinete-lateral-de-vidro.html%3Fsrsltid%3DAfmBOooSa6CLfCyvdZk4w1-ledJWdZCtNry0tKbKfhAL49XF3PFM_Yy8GVg&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj_u5-JkMWFAxU8pZUCHavRBWAQgOUECNgO&amp;usg=AOvVaw36nnjS-lfQnNWOQdewuJbU</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pc info3 gamer amd ryzen 5 rtx 3060 12gb, mem 16gb, ssd m.2 500gb, fonte real ...</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4176</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.info3informatica.com.br/pc-info3-gamer-amd-ryzen-5-rtx-3060-12gb-16gb-ddr4-ssd-m2-500gb-fonte-real-600w&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj_u5-JkMWFAxU8pZUCHavRBWAQgOUECJQP&amp;usg=AOvVaw0UkkG2BFpoEzB4gmxqOljP</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pc gamer amd ryzen 5 5500 16gb (rtx 3060 12gb) ssd 480gb m.2 600w, neologic ...</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4329.9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.shopinfo.com.br/pc-gamer-amd-ryzen-5-5500-16gb-rtx-3060-12gb-ssd-480gb-m2-600w-neologic---nli84487-084487/p%3Fidsku%3D2146875499&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj_u5-JkMWFAxU8pZUCHavRBWAQguUECKIP&amp;usg=AOvVaw3SmfkDKjw0tiGkw07rJYaN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pc gamer arena games 6 intel i5 11400f, rtx 3060 8g, 16gb, 500gb m2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4337.05</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://arenacomputadores.com.br/produto/pc-gamer-arena-games-6/%3Fsrsltid%3DAfmBOoq76aIGIII42sUG9RgxWDz8NL0KwvZ48LiC0_iMi_hg0iLp_nd31Vs&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj_u5-JkMWFAxU8pZUCHavRBWAQgOUECLAP&amp;usg=AOvVaw1m69BMA4U54TUN9uiVa8HW</t>
         </is>
       </c>
     </row>
